--- a/0. Data Analyst Portfolio/2. Data Analyst Project - SQL,  Python, Looker, Excel/6_ultra_run_simplified.xlsx
+++ b/0. Data Analyst Portfolio/2. Data Analyst Project - SQL,  Python, Looker, Excel/6_ultra_run_simplified.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,1284 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="422">
+  <si>
+    <t>Daniel Wilson</t>
+  </si>
+  <si>
+    <t>0 days 08:23:01</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>36.155327, -95.992083</t>
+  </si>
+  <si>
+    <t>Eric Davis</t>
+  </si>
+  <si>
+    <t>0 days 08:57:54</t>
+  </si>
+  <si>
+    <t>Greenwood</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>39.613576, -86.117876</t>
+  </si>
+  <si>
+    <t>Stewart Edwards</t>
+  </si>
+  <si>
+    <t>0 days 09:24:35</t>
+  </si>
+  <si>
+    <t>New Smyrna Beach</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>29.029722, -80.9237495</t>
+  </si>
+  <si>
+    <t>Ron Hammett</t>
+  </si>
+  <si>
+    <t>0 days 09:24:36</t>
+  </si>
+  <si>
+    <t>Montverde</t>
+  </si>
+  <si>
+    <t>28.601025, -81.672685</t>
+  </si>
+  <si>
+    <t>Seth Cain</t>
+  </si>
+  <si>
+    <t>0 days 09:42:17</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>28.73802, -81.11525</t>
+  </si>
+  <si>
+    <t>Brad Fetters</t>
+  </si>
+  <si>
+    <t>0 days 09:48:23</t>
+  </si>
+  <si>
+    <t>Odessa</t>
+  </si>
+  <si>
+    <t>28.188854, -82.590301</t>
+  </si>
+  <si>
+    <t>David Booher</t>
+  </si>
+  <si>
+    <t>0 days 09:52:01</t>
+  </si>
+  <si>
+    <t>Goshen</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>39.230466, -84.163604</t>
+  </si>
+  <si>
+    <t>Elizabeth Myers</t>
+  </si>
+  <si>
+    <t>0 days 10:04:42</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>27.336517, -82.5385652</t>
+  </si>
+  <si>
+    <t>Andrew Foerster</t>
+  </si>
+  <si>
+    <t>0 days 10:07:19</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>39.960339, -76.734668</t>
+  </si>
+  <si>
+    <t>Michael Stone</t>
+  </si>
+  <si>
+    <t>0 days 10:09:02</t>
+  </si>
+  <si>
+    <t>Delray Beach</t>
+  </si>
+  <si>
+    <t>26.4616338, -80.0731071</t>
+  </si>
+  <si>
+    <t>Heidi Hinnershitz</t>
+  </si>
+  <si>
+    <t>0 days 10:14:28</t>
+  </si>
+  <si>
+    <t>Seven Devils</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>36.148414, -81.819909</t>
+  </si>
+  <si>
+    <t>Chad Smith</t>
+  </si>
+  <si>
+    <t>0 days 10:17:20</t>
+  </si>
+  <si>
+    <t>Middletown</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>41.445053, -74.420024</t>
+  </si>
+  <si>
+    <t>Paul Reynolds</t>
+  </si>
+  <si>
+    <t>0 days 10:17:27</t>
+  </si>
+  <si>
+    <t>Westbrookville</t>
+  </si>
+  <si>
+    <t>41.502459, -74.559703</t>
+  </si>
+  <si>
+    <t>Robb Young</t>
+  </si>
+  <si>
+    <t>0 days 10:31:47</t>
+  </si>
+  <si>
+    <t>Marietta</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>33.952304, -84.549051</t>
+  </si>
+  <si>
+    <t>Trevor Foulk</t>
+  </si>
+  <si>
+    <t>0 days 10:34:48</t>
+  </si>
+  <si>
+    <t>St. John's</t>
+  </si>
+  <si>
+    <t>30.0815, -81.54774</t>
+  </si>
+  <si>
+    <t>Daniel Reilly</t>
+  </si>
+  <si>
+    <t>0 days 10:39:48</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>35.2237867, -80.8411413</t>
+  </si>
+  <si>
+    <t>Julie Rosa Kenney</t>
+  </si>
+  <si>
+    <t>0 days 10:41:57</t>
+  </si>
+  <si>
+    <t>Chuluota</t>
+  </si>
+  <si>
+    <t>28.641884, -81.121597</t>
+  </si>
+  <si>
+    <t>Jason Harasimowicz</t>
+  </si>
+  <si>
+    <t>0 days 10:46:22</t>
+  </si>
+  <si>
+    <t>Batavia</t>
+  </si>
+  <si>
+    <t>42.99691, -78.186028</t>
+  </si>
+  <si>
+    <t>Johnny Daniels</t>
+  </si>
+  <si>
+    <t>0 days 10:47:44</t>
+  </si>
+  <si>
+    <t>Oak Ridge</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>36.0152413, -84.265169</t>
+  </si>
+  <si>
+    <t>Troy Tibbetts</t>
+  </si>
+  <si>
+    <t>0 days 10:59:23</t>
+  </si>
+  <si>
+    <t>Fort Moore</t>
+  </si>
+  <si>
+    <t>34.26149, -83.903514</t>
+  </si>
+  <si>
+    <t>Andrew Graham</t>
+  </si>
+  <si>
+    <t>0 days 11:12:10</t>
+  </si>
+  <si>
+    <t>Lake Worth</t>
+  </si>
+  <si>
+    <t>26.61708, -80.07231</t>
+  </si>
+  <si>
+    <t>Jessica Hardy</t>
+  </si>
+  <si>
+    <t>0 days 11:13:28</t>
+  </si>
+  <si>
+    <t>El Segundo</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>33.920861, -118.415947</t>
+  </si>
+  <si>
+    <t>Brandon Holmes</t>
+  </si>
+  <si>
+    <t>0 days 11:16:22</t>
+  </si>
+  <si>
+    <t>Valrico</t>
+  </si>
+  <si>
+    <t>27.9452672, -82.250302</t>
+  </si>
+  <si>
+    <t>Jeremy Boz</t>
+  </si>
+  <si>
+    <t>0 days 11:19:53</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>36.1690921, -115.1405767</t>
+  </si>
+  <si>
+    <t>Darren Ramdhan</t>
+  </si>
+  <si>
+    <t>0 days 11:20:04</t>
+  </si>
+  <si>
+    <t>Matthew Masson</t>
+  </si>
+  <si>
+    <t>0 days 11:22:27</t>
+  </si>
+  <si>
+    <t>Merritt Island</t>
+  </si>
+  <si>
+    <t>28.354259, -80.700167</t>
+  </si>
+  <si>
+    <t>Charlie Alesi</t>
+  </si>
+  <si>
+    <t>0 days 11:44:57</t>
+  </si>
+  <si>
+    <t>Kennesaw</t>
+  </si>
+  <si>
+    <t>34.025354, -84.618822</t>
+  </si>
+  <si>
+    <t>Lizzy Fowler</t>
+  </si>
+  <si>
+    <t>0 days 11:46:34</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>27.19957, -80.254878</t>
+  </si>
+  <si>
+    <t>Clay Pell</t>
+  </si>
+  <si>
+    <t>0 days 11:49:03</t>
+  </si>
+  <si>
+    <t>Jacksonville Beach</t>
+  </si>
+  <si>
+    <t>30.2881812, -81.3920144</t>
+  </si>
+  <si>
+    <t>Arron Ocheltree</t>
+  </si>
+  <si>
+    <t>0 days 11:52:03</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>28.67029, -81.208479</t>
+  </si>
+  <si>
+    <t>Eric O'Neil</t>
+  </si>
+  <si>
+    <t>0 days 11:55:00</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>41.883229, -87.632398</t>
+  </si>
+  <si>
+    <t>Mike Murchison</t>
+  </si>
+  <si>
+    <t>0 days 11:55:03</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>43.653524, -79.383907</t>
+  </si>
+  <si>
+    <t>Cody Dolloff</t>
+  </si>
+  <si>
+    <t>0 days 11:55:07</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>32.466682, -84.990405</t>
+  </si>
+  <si>
+    <t>Leanna Hobson</t>
+  </si>
+  <si>
+    <t>0 days 11:59:06</t>
+  </si>
+  <si>
+    <t>BALLARD</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>38.29947, -81.80819</t>
+  </si>
+  <si>
+    <t>Rigoberto Barragan</t>
+  </si>
+  <si>
+    <t>0 days 11:59:59</t>
+  </si>
+  <si>
+    <t>Milton</t>
+  </si>
+  <si>
+    <t>30.63212, -87.043138</t>
+  </si>
+  <si>
+    <t>Nick Wishart</t>
+  </si>
+  <si>
+    <t>0 days 12:00:02</t>
+  </si>
+  <si>
+    <t>PAWTUCKET</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>41.8799, -71.382408</t>
+  </si>
+  <si>
+    <t>Bill Sanborn</t>
+  </si>
+  <si>
+    <t>0 days 12:00:08</t>
+  </si>
+  <si>
+    <t>Tara Allen</t>
+  </si>
+  <si>
+    <t>0 days 12:11:27</t>
+  </si>
+  <si>
+    <t>Mount Desert</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>44.368861, -68.3306549</t>
+  </si>
+  <si>
+    <t>Chad Frederick</t>
+  </si>
+  <si>
+    <t>0 days 12:11:30</t>
+  </si>
+  <si>
+    <t>Hilton Head</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>32.21632, -80.75261</t>
+  </si>
+  <si>
+    <t>Anna Foard</t>
+  </si>
+  <si>
+    <t>0 days 12:18:02</t>
+  </si>
+  <si>
+    <t>Woodstock</t>
+  </si>
+  <si>
+    <t>34.101319, -84.519378</t>
+  </si>
+  <si>
+    <t>Ross Putman</t>
+  </si>
+  <si>
+    <t>0 days 12:18:19</t>
+  </si>
+  <si>
+    <t>Dekalb Jct</t>
+  </si>
+  <si>
+    <t>44.501719, -75.269416</t>
+  </si>
+  <si>
+    <t>Jose Marin</t>
+  </si>
+  <si>
+    <t>0 days 12:27:56</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>28.566044895, -81.68864879</t>
+  </si>
+  <si>
+    <t>Alister Wilson</t>
+  </si>
+  <si>
+    <t>0 days 12:27:58</t>
+  </si>
+  <si>
+    <t>tampa</t>
+  </si>
+  <si>
+    <t>27.947423, -82.458776</t>
+  </si>
+  <si>
+    <t>Jeffrey Torres</t>
+  </si>
+  <si>
+    <t>0 days 12:31:32</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>28.538331, -81.378879</t>
+  </si>
+  <si>
+    <t>Chris Mason</t>
+  </si>
+  <si>
+    <t>0 days 12:39:13</t>
+  </si>
+  <si>
+    <t>Henrico</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>37.6312763, -77.5449561</t>
+  </si>
+  <si>
+    <t>Brent Bowman</t>
+  </si>
+  <si>
+    <t>0 days 12:39:39</t>
+  </si>
+  <si>
+    <t>Buford</t>
+  </si>
+  <si>
+    <t>34.1192968, -84.0053899</t>
+  </si>
+  <si>
+    <t>Drew Burkhalter</t>
+  </si>
+  <si>
+    <t>0 days 12:47:10</t>
+  </si>
+  <si>
+    <t>Avondale Estates</t>
+  </si>
+  <si>
+    <t>33.771572, -84.267428</t>
+  </si>
+  <si>
+    <t>George Blackwood</t>
+  </si>
+  <si>
+    <t>0 days 12:54:30</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>47.561485, -52.712675</t>
+  </si>
+  <si>
+    <t>Ben Henderson</t>
+  </si>
+  <si>
+    <t>0 days 12:55:55</t>
+  </si>
+  <si>
+    <t>Dominick Gebauer</t>
+  </si>
+  <si>
+    <t>0 days 12:56:10</t>
+  </si>
+  <si>
+    <t>Ormond Beach</t>
+  </si>
+  <si>
+    <t>29.2774764, -81.0417589</t>
+  </si>
+  <si>
+    <t>Rebecca Sharp</t>
+  </si>
+  <si>
+    <t>0 days 12:56:46</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>35.9626444, -83.9167239</t>
+  </si>
+  <si>
+    <t>Tara Butler</t>
+  </si>
+  <si>
+    <t>0 days 12:57:58</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>40.051548, -105.047448</t>
+  </si>
+  <si>
+    <t>Hunter Musgrove</t>
+  </si>
+  <si>
+    <t>0 days 12:58:35</t>
+  </si>
+  <si>
+    <t>ASHEVILLE</t>
+  </si>
+  <si>
+    <t>35.5959111, -82.5500442</t>
+  </si>
+  <si>
+    <t>Jessika Poppe</t>
+  </si>
+  <si>
+    <t>0 days 12:58:41</t>
+  </si>
+  <si>
+    <t>Asheville</t>
+  </si>
+  <si>
+    <t>Robert Crow</t>
+  </si>
+  <si>
+    <t>0 days 12:59:47</t>
+  </si>
+  <si>
+    <t>Crawfordville</t>
+  </si>
+  <si>
+    <t>30.177851, -84.375053</t>
+  </si>
+  <si>
+    <t>Todd Barnett</t>
+  </si>
+  <si>
+    <t>0 days 12:59:53</t>
+  </si>
+  <si>
+    <t>Longwood</t>
+  </si>
+  <si>
+    <t>28.704558, -81.352659</t>
+  </si>
+  <si>
+    <t>Andrew Fortenberry</t>
+  </si>
+  <si>
+    <t>0 days 13:02:29</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>30.325968, -81.65676</t>
+  </si>
+  <si>
+    <t>Kyle Schmidt</t>
+  </si>
+  <si>
+    <t>0 days 13:03:21</t>
+  </si>
+  <si>
+    <t>Michelle Goldberg</t>
+  </si>
+  <si>
+    <t>0 days 13:04:23</t>
+  </si>
+  <si>
+    <t>Meadowbrook</t>
+  </si>
+  <si>
+    <t>39.872854, -79.7156</t>
+  </si>
+  <si>
+    <t>John William Deaton</t>
+  </si>
+  <si>
+    <t>0 days 13:05:53</t>
+  </si>
+  <si>
+    <t>Chilhowie</t>
+  </si>
+  <si>
+    <t>36.7986081, -81.6823489</t>
+  </si>
+  <si>
+    <t>Jason Kring</t>
+  </si>
+  <si>
+    <t>0 days 13:07:12</t>
+  </si>
+  <si>
+    <t>Alex Moore</t>
+  </si>
+  <si>
+    <t>0 days 13:08:09</t>
+  </si>
+  <si>
+    <t>Palm Coast</t>
+  </si>
+  <si>
+    <t>29.582247, -81.214912</t>
+  </si>
+  <si>
+    <t>Boris Karetny</t>
+  </si>
+  <si>
+    <t>0 days 13:09:55</t>
+  </si>
+  <si>
+    <t>Casey Burkhalter</t>
+  </si>
+  <si>
+    <t>0 days 13:19:29</t>
+  </si>
+  <si>
+    <t>Avondale estates</t>
+  </si>
+  <si>
+    <t>Jason Finch</t>
+  </si>
+  <si>
+    <t>0 days 13:20:05</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>34.333786, -83.499453</t>
+  </si>
+  <si>
+    <t>Gregory Ryan</t>
+  </si>
+  <si>
+    <t>0 days 13:20:59</t>
+  </si>
+  <si>
+    <t>Samuel Dunaway</t>
+  </si>
+  <si>
+    <t>0 days 13:21:07</t>
+  </si>
+  <si>
+    <t>DeFuniak Springs</t>
+  </si>
+  <si>
+    <t>30.712245930298, -86.120838423122</t>
+  </si>
+  <si>
+    <t>Brian Miller</t>
+  </si>
+  <si>
+    <t>0 days 13:21:55</t>
+  </si>
+  <si>
+    <t>Palm Bay</t>
+  </si>
+  <si>
+    <t>27.999015, -80.67266</t>
+  </si>
+  <si>
+    <t>Stephanie Felber</t>
+  </si>
+  <si>
+    <t>0 days 13:26:11</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>42.039567, -88.283975</t>
+  </si>
+  <si>
+    <t>Tony Hofmann</t>
+  </si>
+  <si>
+    <t>0 days 13:26:20</t>
+  </si>
+  <si>
+    <t>Overland Park</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>38.9748197, -94.6835997</t>
+  </si>
+  <si>
+    <t>Steven Stricker</t>
+  </si>
+  <si>
+    <t>0 days 13:26:27</t>
+  </si>
+  <si>
+    <t>Lady Lake</t>
+  </si>
+  <si>
+    <t>28.9153249, -81.9224108</t>
+  </si>
+  <si>
+    <t>Darren Worley</t>
+  </si>
+  <si>
+    <t>0 days 13:26:45</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>38.329114, -90.148082</t>
+  </si>
+  <si>
+    <t>Joshua Sanders</t>
+  </si>
+  <si>
+    <t>0 days 13:27:37</t>
+  </si>
+  <si>
+    <t>Fort Benning</t>
+  </si>
+  <si>
+    <t>32.370394, -84.927293</t>
+  </si>
+  <si>
+    <t>Matthew McNeece</t>
+  </si>
+  <si>
+    <t>0 days 13:27:46</t>
+  </si>
+  <si>
+    <t>Matt Steiner</t>
+  </si>
+  <si>
+    <t>0 days 13:28:30</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>43.211334, -77.695241</t>
+  </si>
+  <si>
+    <t>Brett Chapman</t>
+  </si>
+  <si>
+    <t>0 days 13:45:18</t>
+  </si>
+  <si>
+    <t>Weston</t>
+  </si>
+  <si>
+    <t>26.100612, -80.399941</t>
+  </si>
+  <si>
+    <t>Zach Clayton</t>
+  </si>
+  <si>
+    <t>0 days 13:47:19</t>
+  </si>
+  <si>
+    <t>Kyle Rose</t>
+  </si>
+  <si>
+    <t>0 days 13:48:48</t>
+  </si>
+  <si>
+    <t>Estero</t>
+  </si>
+  <si>
+    <t>26.43765, -81.804994</t>
+  </si>
+  <si>
+    <t>Becky Madsen</t>
+  </si>
+  <si>
+    <t>0 days 13:49:04</t>
+  </si>
+  <si>
+    <t>Kirsten York</t>
+  </si>
+  <si>
+    <t>0 days 13:49:07</t>
+  </si>
+  <si>
+    <t>Bailey Freer</t>
+  </si>
+  <si>
+    <t>0 days 13:49:24</t>
+  </si>
+  <si>
+    <t>Winter Garden</t>
+  </si>
+  <si>
+    <t>28.565118, -81.589009</t>
+  </si>
+  <si>
+    <t>Matthew Holappa</t>
+  </si>
+  <si>
+    <t>0 days 13:54:55</t>
+  </si>
+  <si>
+    <t>Gerhard Mutz</t>
+  </si>
+  <si>
+    <t>0 days 13:55:14</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>33.748547, -84.391502</t>
+  </si>
+  <si>
+    <t>Rusty Smith</t>
+  </si>
+  <si>
+    <t>0 days 13:56:55</t>
+  </si>
+  <si>
+    <t>Jason Kumlien</t>
+  </si>
+  <si>
+    <t>0 days 14:01:02</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Abraham Mancino</t>
+  </si>
+  <si>
+    <t>0 days 14:01:16</t>
+  </si>
+  <si>
+    <t>Bethel</t>
+  </si>
+  <si>
+    <t>38.963581, -84.081127</t>
+  </si>
+  <si>
+    <t>William Dozier</t>
+  </si>
+  <si>
+    <t>0 days 14:02:44</t>
+  </si>
+  <si>
+    <t>Hilliard</t>
+  </si>
+  <si>
+    <t>30.690477, -81.915695</t>
+  </si>
+  <si>
+    <t>Mark Ogrady</t>
+  </si>
+  <si>
+    <t>0 days 14:11:54</t>
+  </si>
+  <si>
+    <t>Lakeland</t>
+  </si>
+  <si>
+    <t>28.0441545, -81.948966</t>
+  </si>
+  <si>
+    <t>Julian Davis</t>
+  </si>
+  <si>
+    <t>0 days 14:13:42</t>
+  </si>
+  <si>
+    <t>Boynton Beach</t>
+  </si>
+  <si>
+    <t>26.5289113, -80.0641707</t>
+  </si>
+  <si>
+    <t>Rob Canfield</t>
+  </si>
+  <si>
+    <t>0 days 14:17:04</t>
+  </si>
+  <si>
+    <t>Bridgeport</t>
+  </si>
+  <si>
+    <t>40.105807, -75.346809</t>
+  </si>
+  <si>
+    <t>Ryan Nolan</t>
+  </si>
+  <si>
+    <t>0 days 14:26:47</t>
+  </si>
+  <si>
+    <t>Brittany Sobering</t>
+  </si>
+  <si>
+    <t>0 days 14:29:08</t>
+  </si>
+  <si>
+    <t>Winter Springs</t>
+  </si>
+  <si>
+    <t>28.698704, -81.305483</t>
+  </si>
+  <si>
+    <t>Gordon Bloom</t>
+  </si>
+  <si>
+    <t>0 days 14:29:23</t>
+  </si>
+  <si>
+    <t>St Cloud</t>
+  </si>
+  <si>
+    <t>28.248887, -81.280117</t>
+  </si>
+  <si>
+    <t>Jen Maki</t>
+  </si>
+  <si>
+    <t>0 days 14:29:30</t>
+  </si>
+  <si>
+    <t>Casselberry</t>
+  </si>
+  <si>
+    <t>28.679669, -81.3357429</t>
+  </si>
+  <si>
+    <t>Nick Collins</t>
+  </si>
+  <si>
+    <t>0 days 14:29:54</t>
+  </si>
+  <si>
+    <t>Plant City</t>
+  </si>
+  <si>
+    <t>27.998304, -82.12042</t>
+  </si>
+  <si>
+    <t>Ryan Bontrager</t>
+  </si>
+  <si>
+    <t>0 days 14:29:56</t>
+  </si>
+  <si>
+    <t>Brian Delong</t>
+  </si>
+  <si>
+    <t>0 days 14:35:35</t>
+  </si>
+  <si>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>30.602179, -87.158606</t>
+  </si>
+  <si>
+    <t>Lena Cowell</t>
+  </si>
+  <si>
+    <t>0 days 14:40:05</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>41.258652, -95.937195</t>
+  </si>
+  <si>
+    <t>Katherine Clemente</t>
+  </si>
+  <si>
+    <t>0 days 14:40:09</t>
+  </si>
+  <si>
+    <t>Matthew Damico</t>
+  </si>
+  <si>
+    <t>0 days 15:00:17</t>
+  </si>
+  <si>
+    <t>VENTNOR CITY</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>39.3387092, -74.4811913</t>
+  </si>
+  <si>
+    <t>Andrew Rollins</t>
+  </si>
+  <si>
+    <t>0 days 15:00:28</t>
+  </si>
+  <si>
+    <t>Highland Hgts</t>
+  </si>
+  <si>
+    <t>41.55251, -81.47109</t>
+  </si>
+  <si>
+    <t>Paul Rollins</t>
+  </si>
+  <si>
+    <t>0 days 15:00:30</t>
+  </si>
+  <si>
+    <t>Jennifer Isley</t>
+  </si>
+  <si>
+    <t>0 days 15:01:15</t>
+  </si>
+  <si>
+    <t>DeBary</t>
+  </si>
+  <si>
+    <t>28.882783, -81.3087621</t>
+  </si>
+  <si>
+    <t>David Buning</t>
+  </si>
+  <si>
+    <t>0 days 15:03:26</t>
+  </si>
+  <si>
+    <t>Winter Park</t>
+  </si>
+  <si>
+    <t>28.600246, -81.33882</t>
+  </si>
+  <si>
+    <t>Kelly Stoner Baker</t>
+  </si>
+  <si>
+    <t>0 days 15:09:19</t>
+  </si>
+  <si>
+    <t>Chad Ward</t>
+  </si>
+  <si>
+    <t>0 days 15:10:30</t>
+  </si>
+  <si>
+    <t>Dennis Stadelman</t>
+  </si>
+  <si>
+    <t>0 days 15:20:26</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>43.175809, -76.11135</t>
+  </si>
+  <si>
+    <t>Jonathan Burnham</t>
+  </si>
+  <si>
+    <t>0 days 15:40:49</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>total_minutes</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>latlong</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,11 +1325,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,36 +1619,3211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>503</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>537</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>564</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>564</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>582</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>588</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>592</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>604</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>607</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>609</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>614</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>617</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>617</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>631</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>634</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17">
+        <v>639</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>641</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>646</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20">
+        <v>647</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21">
+        <v>659</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>672</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <v>673</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24">
+        <v>676</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25">
+        <v>679</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26">
+        <v>680</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27">
+        <v>682</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28">
+        <v>704</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>706</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30">
+        <v>709</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31">
+        <v>712</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32">
+        <v>715</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33">
+        <v>715</v>
+      </c>
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34">
+        <v>715</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35">
+        <v>719</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36">
+        <v>719</v>
+      </c>
+      <c r="E36" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37">
+        <v>720</v>
+      </c>
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38">
+        <v>720</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39">
+        <v>731</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40">
+        <v>731</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41">
+        <v>738</v>
+      </c>
+      <c r="E41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42">
+        <v>738</v>
+      </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43">
+        <v>747</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44">
+        <v>747</v>
+      </c>
+      <c r="E44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45">
+        <v>751</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46">
+        <v>759</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47">
+        <v>759</v>
+      </c>
+      <c r="E47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48">
+        <v>767</v>
+      </c>
+      <c r="E48" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49">
+        <v>774</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49">
+        <v>61</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50">
+        <v>775</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51">
+        <v>776</v>
+      </c>
+      <c r="E51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52">
+        <v>776</v>
+      </c>
+      <c r="E52" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53">
+        <v>777</v>
+      </c>
+      <c r="E53" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" t="s">
+        <v>221</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54">
+        <v>778</v>
+      </c>
+      <c r="E54" t="s">
+        <v>225</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>29</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55">
+        <v>778</v>
+      </c>
+      <c r="E55" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56">
+        <v>779</v>
+      </c>
+      <c r="E56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57">
+        <v>779</v>
+      </c>
+      <c r="E57" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58">
+        <v>782</v>
+      </c>
+      <c r="E58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59">
+        <v>783</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60">
+        <v>784</v>
+      </c>
+      <c r="E60" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60">
+        <v>49</v>
+      </c>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61">
+        <v>785</v>
+      </c>
+      <c r="E61" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61">
+        <v>29</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62">
+        <v>787</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62">
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63">
+        <v>788</v>
+      </c>
+      <c r="E63" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64">
+        <v>789</v>
+      </c>
+      <c r="E64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65">
+        <v>799</v>
+      </c>
+      <c r="E65" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66">
+        <v>800</v>
+      </c>
+      <c r="E66" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66">
+        <v>48</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67">
+        <v>800</v>
+      </c>
+      <c r="E67" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68">
+        <v>801</v>
+      </c>
+      <c r="E68" t="s">
+        <v>271</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69">
+        <v>801</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69">
+        <v>41</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70">
+        <v>806</v>
+      </c>
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70">
+        <v>60</v>
+      </c>
+      <c r="H70" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71">
+        <v>806</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71">
+        <v>57</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72">
+        <v>806</v>
+      </c>
+      <c r="E72" t="s">
+        <v>288</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72">
+        <v>60</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73">
+        <v>806</v>
+      </c>
+      <c r="E73" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74">
+        <v>807</v>
+      </c>
+      <c r="E74" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75">
+        <v>807</v>
+      </c>
+      <c r="E75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76">
+        <v>808</v>
+      </c>
+      <c r="E76" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77">
+        <v>825</v>
+      </c>
+      <c r="E77" t="s">
+        <v>306</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78">
+        <v>827</v>
+      </c>
+      <c r="E78" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78">
+        <v>38</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>310</v>
+      </c>
+      <c r="C79" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79">
+        <v>828</v>
+      </c>
+      <c r="E79" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80">
+        <v>829</v>
+      </c>
+      <c r="E80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80">
+        <v>39</v>
+      </c>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81">
+        <v>829</v>
+      </c>
+      <c r="E81" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81">
+        <v>34</v>
+      </c>
+      <c r="H81" t="s">
+        <v>36</v>
+      </c>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82">
+        <v>829</v>
+      </c>
+      <c r="E82" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83">
+        <v>834</v>
+      </c>
+      <c r="E83" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83">
+        <v>56</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84">
+        <v>835</v>
+      </c>
+      <c r="E84" t="s">
+        <v>326</v>
+      </c>
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84">
+        <v>63</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85">
+        <v>836</v>
+      </c>
+      <c r="E85" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85">
+        <v>56</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86" t="s">
+        <v>331</v>
+      </c>
+      <c r="D86">
+        <v>841</v>
+      </c>
+      <c r="E86" t="s">
+        <v>332</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86">
+        <v>53</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" t="s">
+        <v>334</v>
+      </c>
+      <c r="D87">
+        <v>841</v>
+      </c>
+      <c r="E87" t="s">
+        <v>335</v>
+      </c>
+      <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" t="s">
+        <v>338</v>
+      </c>
+      <c r="D88">
+        <v>842</v>
+      </c>
+      <c r="E88" t="s">
+        <v>339</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88">
+        <v>51</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>341</v>
+      </c>
+      <c r="C89" t="s">
+        <v>342</v>
+      </c>
+      <c r="D89">
+        <v>851</v>
+      </c>
+      <c r="E89" t="s">
+        <v>343</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" t="s">
+        <v>346</v>
+      </c>
+      <c r="D90">
+        <v>853</v>
+      </c>
+      <c r="E90" t="s">
+        <v>347</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90">
+        <v>35</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>349</v>
+      </c>
+      <c r="C91" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91">
+        <v>857</v>
+      </c>
+      <c r="E91" t="s">
+        <v>351</v>
+      </c>
+      <c r="F91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G91">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>353</v>
+      </c>
+      <c r="C92" t="s">
+        <v>354</v>
+      </c>
+      <c r="D92">
+        <v>866</v>
+      </c>
+      <c r="E92" t="s">
+        <v>189</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92">
+        <v>26</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>355</v>
+      </c>
+      <c r="C93" t="s">
+        <v>356</v>
+      </c>
+      <c r="D93">
+        <v>869</v>
+      </c>
+      <c r="E93" t="s">
+        <v>357</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s">
+        <v>36</v>
+      </c>
+      <c r="I93" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>359</v>
+      </c>
+      <c r="C94" t="s">
+        <v>360</v>
+      </c>
+      <c r="D94">
+        <v>869</v>
+      </c>
+      <c r="E94" t="s">
+        <v>361</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94">
+        <v>53</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>363</v>
+      </c>
+      <c r="C95" t="s">
+        <v>364</v>
+      </c>
+      <c r="D95">
+        <v>869</v>
+      </c>
+      <c r="E95" t="s">
+        <v>365</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>367</v>
+      </c>
+      <c r="C96" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96">
+        <v>869</v>
+      </c>
+      <c r="E96" t="s">
+        <v>369</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <v>42</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>371</v>
+      </c>
+      <c r="C97" t="s">
+        <v>372</v>
+      </c>
+      <c r="D97">
+        <v>869</v>
+      </c>
+      <c r="E97" t="s">
+        <v>369</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>47</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+      <c r="C98" t="s">
+        <v>374</v>
+      </c>
+      <c r="D98">
+        <v>875</v>
+      </c>
+      <c r="E98" t="s">
+        <v>375</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98">
+        <v>61</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>377</v>
+      </c>
+      <c r="C99" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99">
+        <v>880</v>
+      </c>
+      <c r="E99" t="s">
+        <v>379</v>
+      </c>
+      <c r="F99" t="s">
+        <v>380</v>
+      </c>
+      <c r="G99">
+        <v>31</v>
+      </c>
+      <c r="H99" t="s">
+        <v>36</v>
+      </c>
+      <c r="I99" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>382</v>
+      </c>
+      <c r="C100" t="s">
+        <v>383</v>
+      </c>
+      <c r="D100">
+        <v>880</v>
+      </c>
+      <c r="E100" t="s">
+        <v>189</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s">
+        <v>36</v>
+      </c>
+      <c r="I100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>384</v>
+      </c>
+      <c r="C101" t="s">
+        <v>385</v>
+      </c>
+      <c r="D101">
+        <v>900</v>
+      </c>
+      <c r="E101" t="s">
+        <v>386</v>
+      </c>
+      <c r="F101" t="s">
+        <v>387</v>
+      </c>
+      <c r="G101">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" t="s">
+        <v>390</v>
+      </c>
+      <c r="D102">
+        <v>900</v>
+      </c>
+      <c r="E102" t="s">
+        <v>391</v>
+      </c>
+      <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102">
+        <v>55</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>393</v>
+      </c>
+      <c r="C103" t="s">
+        <v>394</v>
+      </c>
+      <c r="D103">
+        <v>900</v>
+      </c>
+      <c r="E103" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103">
+        <v>53</v>
+      </c>
+      <c r="H103" t="s">
+        <v>4</v>
+      </c>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" t="s">
+        <v>396</v>
+      </c>
+      <c r="D104">
+        <v>901</v>
+      </c>
+      <c r="E104" t="s">
+        <v>397</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104">
+        <v>51</v>
+      </c>
+      <c r="H104" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>399</v>
+      </c>
+      <c r="C105" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105">
+        <v>903</v>
+      </c>
+      <c r="E105" t="s">
+        <v>401</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105">
+        <v>49</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>403</v>
+      </c>
+      <c r="C106" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106">
+        <v>909</v>
+      </c>
+      <c r="E106" t="s">
+        <v>173</v>
+      </c>
+      <c r="F106" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106">
+        <v>53</v>
+      </c>
+      <c r="H106" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>405</v>
+      </c>
+      <c r="C107" t="s">
+        <v>406</v>
+      </c>
+      <c r="D107">
+        <v>910</v>
+      </c>
+      <c r="E107" t="s">
+        <v>173</v>
+      </c>
+      <c r="F107" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>407</v>
+      </c>
+      <c r="C108" t="s">
+        <v>408</v>
+      </c>
+      <c r="D108">
+        <v>920</v>
+      </c>
+      <c r="E108" t="s">
+        <v>409</v>
+      </c>
+      <c r="F108" t="s">
+        <v>55</v>
+      </c>
+      <c r="G108">
+        <v>62</v>
+      </c>
+      <c r="H108" t="s">
+        <v>4</v>
+      </c>
+      <c r="I108" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>411</v>
+      </c>
+      <c r="C109" t="s">
+        <v>412</v>
+      </c>
+      <c r="D109">
+        <v>940</v>
+      </c>
+      <c r="E109" t="s">
+        <v>89</v>
+      </c>
+      <c r="F109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
